--- a/data/scheduling_matrix/schedule/8.xlsx
+++ b/data/scheduling_matrix/schedule/8.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/scheduling_matrix/schedule/8.xlsx
+++ b/data/scheduling_matrix/schedule/8.xlsx
@@ -459,16 +459,16 @@
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0.3930368423461914</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06749938584885598</v>
+        <v>0.06767408263188759</v>
       </c>
       <c r="H2" t="n">
-        <v>37.69353916218901</v>
+        <v>37.59623544152346</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
@@ -480,7 +480,7 @@
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
@@ -500,16 +500,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0.3943130970001221</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06750799606021989</v>
+        <v>0.06778884022363375</v>
       </c>
       <c r="H3" t="n">
-        <v>37.56674624853517</v>
+        <v>37.41110999059736</v>
       </c>
       <c r="I3" t="n">
         <v>6</v>
@@ -521,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
@@ -538,19 +538,19 @@
         <v>228</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0.3962569236755371</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06773633168170824</v>
+        <v>0.06779303810025025</v>
       </c>
       <c r="H4" t="n">
-        <v>37.25644935613095</v>
+        <v>37.22528568697286</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
@@ -559,10 +559,10 @@
         <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
@@ -582,16 +582,16 @@
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0.3984708786010742</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06794734458242477</v>
+        <v>0.06798507303100751</v>
       </c>
       <c r="H5" t="n">
-        <v>36.93438940010161</v>
+        <v>36.91389258882686</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
@@ -603,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>173</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -629,10 +629,10 @@
         <v>0.3998570442199707</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06778957034196974</v>
+        <v>0.06785162475606536</v>
       </c>
       <c r="H6" t="n">
-        <v>36.89201422049793</v>
+        <v>36.85827424248723</v>
       </c>
       <c r="I6" t="n">
         <v>6</v>
@@ -641,13 +641,13 @@
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -670,10 +670,10 @@
         <v>0.3907439708709717</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07073175712923856</v>
+        <v>0.07079072339571439</v>
       </c>
       <c r="H7" t="n">
-        <v>36.18205815553881</v>
+        <v>36.15191973089075</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -699,22 +699,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4026319980621338</v>
+        <v>0.4023351669311523</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06870420357854939</v>
+        <v>0.06892986415999683</v>
       </c>
       <c r="H8" t="n">
-        <v>36.15000852959896</v>
+        <v>36.05824479191882</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
@@ -726,7 +726,7 @@
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D9" t="n">
         <v>2</v>
@@ -749,13 +749,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4023351669311523</v>
+        <v>0.4026319980621338</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06894166494632177</v>
+        <v>0.06898812614491967</v>
       </c>
       <c r="H9" t="n">
-        <v>36.05207268043335</v>
+        <v>36.00123215648122</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
@@ -784,7 +784,7 @@
         <v>295</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
         <v>0.4040439128875732</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06884012172695546</v>
+        <v>0.06890551663527833</v>
       </c>
       <c r="H10" t="n">
-        <v>35.95255854022701</v>
+        <v>35.91843769788349</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -805,7 +805,7 @@
         <v>8</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>1</v>
@@ -825,7 +825,7 @@
         <v>297</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -834,10 +834,10 @@
         <v>0.4044609069824219</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06936285623926454</v>
+        <v>0.06944035828182482</v>
       </c>
       <c r="H11" t="n">
-        <v>35.64482445973165</v>
+        <v>35.60504144635605</v>
       </c>
       <c r="I11" t="n">
         <v>6</v>
@@ -846,7 +846,7 @@
         <v>9</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>2</v>
@@ -869,16 +869,16 @@
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>0.4121530055999756</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06913249007320736</v>
+        <v>0.06923935673859159</v>
       </c>
       <c r="H12" t="n">
-        <v>35.09613797722159</v>
+        <v>35.04196925858877</v>
       </c>
       <c r="I12" t="n">
         <v>6</v>
@@ -890,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -907,19 +907,19 @@
         <v>92</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" t="n">
         <v>0.5187199115753174</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08920635034259917</v>
+        <v>0.08917997811681905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.61082314342351</v>
+        <v>21.61721387729974</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
@@ -928,10 +928,10 @@
         <v>11</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
@@ -957,10 +957,10 @@
         <v>0.5223469734191895</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08979120179464799</v>
+        <v>0.08986302976251584</v>
       </c>
       <c r="H14" t="n">
-        <v>21.32097853828598</v>
+        <v>21.30393657380507</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
@@ -989,19 +989,19 @@
         <v>274</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>0.5261969566345215</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09041537877480506</v>
+        <v>0.09032872329412966</v>
       </c>
       <c r="H15" t="n">
-        <v>21.01886990002226</v>
+        <v>21.03903403174046</v>
       </c>
       <c r="I15" t="n">
         <v>6</v>
@@ -1010,10 +1010,10 @@
         <v>13</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -1030,19 +1030,19 @@
         <v>210</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>0.5258448123931885</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09105428164574005</v>
+        <v>0.09119507333083648</v>
       </c>
       <c r="H16" t="n">
-        <v>20.88536327683612</v>
+        <v>20.85311936954817</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
@@ -1051,10 +1051,10 @@
         <v>14</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -1080,10 +1080,10 @@
         <v>0.5287280082702637</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09086086773011889</v>
+        <v>0.09081737065905469</v>
       </c>
       <c r="H17" t="n">
-        <v>20.81568959721128</v>
+        <v>20.82565929269012</v>
       </c>
       <c r="I17" t="n">
         <v>6</v>
@@ -1121,10 +1121,10 @@
         <v>0.5312271118164062</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09059634867330218</v>
+        <v>0.09067242775086379</v>
       </c>
       <c r="H18" t="n">
-        <v>20.7782550936437</v>
+        <v>20.76082101230193</v>
       </c>
       <c r="I18" t="n">
         <v>6</v>
@@ -1162,10 +1162,10 @@
         <v>0.5293171405792236</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09106713662231852</v>
+        <v>0.09109977295430163</v>
       </c>
       <c r="H19" t="n">
-        <v>20.74542616416748</v>
+        <v>20.73799415206175</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
@@ -1174,13 +1174,13 @@
         <v>17</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1203,10 +1203,10 @@
         <v>0.5321099758148193</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09146709053658474</v>
+        <v>0.09159103045777392</v>
       </c>
       <c r="H20" t="n">
-        <v>20.54630516002276</v>
+        <v>20.5185021379415</v>
       </c>
       <c r="I20" t="n">
         <v>6</v>
@@ -1215,13 +1215,13 @@
         <v>18</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1234,16 +1234,20 @@
       <c r="C21" t="n">
         <v>65</v>
       </c>
-      <c r="D21" t="s"/>
-      <c r="E21" t="s"/>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
       <c r="F21" t="n">
         <v>0.8738498687744141</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1504315202393395</v>
+        <v>0.1504917752992876</v>
       </c>
       <c r="H21" t="n">
-        <v>7.607191168510716</v>
+        <v>7.604145342524652</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
@@ -1251,9 +1255,15 @@
       <c r="J21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
-      <c r="M21" t="s"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="1" t="n">
@@ -1265,16 +1275,20 @@
       <c r="C22" t="n">
         <v>61</v>
       </c>
-      <c r="D22" t="s"/>
-      <c r="E22" t="s"/>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
       <c r="F22" t="n">
         <v>0.8758289813995361</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1510038482625233</v>
+        <v>0.1511551847191581</v>
       </c>
       <c r="H22" t="n">
-        <v>7.561233899760661</v>
+        <v>7.553663598098151</v>
       </c>
       <c r="I22" t="n">
         <v>6</v>
@@ -1282,9 +1296,15 @@
       <c r="J22" t="n">
         <v>20</v>
       </c>
-      <c r="K22" t="s"/>
-      <c r="L22" t="s"/>
-      <c r="M22" t="s"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="1" t="n">
@@ -1296,16 +1316,20 @@
       <c r="C23" t="n">
         <v>197</v>
       </c>
-      <c r="D23" t="s"/>
-      <c r="E23" t="s"/>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
       <c r="F23" t="n">
         <v>0.8738658428192139</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1516173669470589</v>
+        <v>0.1516833504097847</v>
       </c>
       <c r="H23" t="n">
-        <v>7.547554984229093</v>
+        <v>7.544271737837002</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
@@ -1313,9 +1337,15 @@
       <c r="J23" t="n">
         <v>21</v>
       </c>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
-      <c r="M23" t="s"/>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="1" t="n">
@@ -1325,28 +1355,38 @@
         <v>22</v>
       </c>
       <c r="C24" t="n">
-        <v>180</v>
-      </c>
-      <c r="D24" t="s"/>
-      <c r="E24" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
       <c r="F24" t="n">
-        <v>0.8876419067382812</v>
+        <v>0.8925089836120605</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1520761573638644</v>
+        <v>0.1512651963282862</v>
       </c>
       <c r="H24" t="n">
-        <v>7.408001677746943</v>
+        <v>7.407103078027044</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
         <v>22</v>
       </c>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
-      <c r="M24" t="s"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="1" t="n">
@@ -1356,28 +1396,38 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>14</v>
-      </c>
-      <c r="D25" t="s"/>
-      <c r="E25" t="s"/>
+        <v>180</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
       <c r="F25" t="n">
-        <v>0.8925089836120605</v>
+        <v>0.8876419067382812</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1512738271423469</v>
+        <v>0.1520961471043289</v>
       </c>
       <c r="H25" t="n">
-        <v>7.406680471350113</v>
+        <v>7.407028056562458</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
         <v>23</v>
       </c>
-      <c r="K25" t="s"/>
-      <c r="L25" t="s"/>
-      <c r="M25" t="s"/>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="n">
@@ -1389,16 +1439,20 @@
       <c r="C26" t="n">
         <v>243</v>
       </c>
-      <c r="D26" t="s"/>
-      <c r="E26" t="s"/>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
       <c r="F26" t="n">
         <v>0.884005069732666</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1530848705409808</v>
+        <v>0.1531446026764722</v>
       </c>
       <c r="H26" t="n">
-        <v>7.389464601887076</v>
+        <v>7.386582433706841</v>
       </c>
       <c r="I26" t="n">
         <v>6</v>
@@ -1406,9 +1460,15 @@
       <c r="J26" t="n">
         <v>24</v>
       </c>
-      <c r="K26" t="s"/>
-      <c r="L26" t="s"/>
-      <c r="M26" t="s"/>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="1" t="n">
@@ -1418,18 +1478,22 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>189</v>
-      </c>
-      <c r="D27" t="s"/>
-      <c r="E27" t="s"/>
+        <v>241</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
       <c r="F27" t="n">
-        <v>0.8966829776763916</v>
+        <v>0.9071230888366699</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1524217386555317</v>
+        <v>0.1522600997025637</v>
       </c>
       <c r="H27" t="n">
-        <v>7.31668172039397</v>
+        <v>7.240151752790932</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
@@ -1437,9 +1501,15 @@
       <c r="J27" t="n">
         <v>25</v>
       </c>
-      <c r="K27" t="s"/>
-      <c r="L27" t="s"/>
-      <c r="M27" t="s"/>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="1" t="n">
@@ -1449,18 +1519,22 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>241</v>
-      </c>
-      <c r="D28" t="s"/>
-      <c r="E28" t="s"/>
+        <v>189</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
       <c r="F28" t="n">
-        <v>0.9071230888366699</v>
+        <v>0.8966829776763916</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1521723760559334</v>
+        <v>0.1540566655854936</v>
       </c>
       <c r="H28" t="n">
-        <v>7.244325522895423</v>
+        <v>7.239033408734301</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
@@ -1468,9 +1542,15 @@
       <c r="J28" t="n">
         <v>26</v>
       </c>
-      <c r="K28" t="s"/>
-      <c r="L28" t="s"/>
-      <c r="M28" t="s"/>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="n">
@@ -1482,16 +1562,20 @@
       <c r="C29" t="n">
         <v>8</v>
       </c>
-      <c r="D29" t="s"/>
-      <c r="E29" t="s"/>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
       <c r="F29" t="n">
         <v>0.8885660171508789</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1557825300648735</v>
+        <v>0.1558832626531508</v>
       </c>
       <c r="H29" t="n">
-        <v>7.224229716626793</v>
+        <v>7.219561381198859</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1499,9 +1583,15 @@
       <c r="J29" t="n">
         <v>27</v>
       </c>
-      <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
-      <c r="M29" t="s"/>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="n">
@@ -1511,18 +1601,22 @@
         <v>28</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
-      </c>
-      <c r="D30" t="s"/>
-      <c r="E30" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
       <c r="F30" t="n">
-        <v>0.8872480392456055</v>
+        <v>0.8925979137420654</v>
       </c>
       <c r="G30" t="n">
-        <v>0.158251814823537</v>
+        <v>0.1571107515215487</v>
       </c>
       <c r="H30" t="n">
-        <v>7.122070240857808</v>
+        <v>7.130799519385534</v>
       </c>
       <c r="I30" t="n">
         <v>6</v>
@@ -1530,9 +1624,15 @@
       <c r="J30" t="n">
         <v>28</v>
       </c>
-      <c r="K30" t="s"/>
-      <c r="L30" t="s"/>
-      <c r="M30" t="s"/>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="1" t="n">
@@ -1542,18 +1642,22 @@
         <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>249</v>
-      </c>
-      <c r="D31" t="s"/>
-      <c r="E31" t="s"/>
+        <v>10</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
       <c r="F31" t="n">
-        <v>0.8925979137420654</v>
+        <v>0.8872480392456055</v>
       </c>
       <c r="G31" t="n">
-        <v>0.158544243417935</v>
+        <v>0.1580869146273716</v>
       </c>
       <c r="H31" t="n">
-        <v>7.066325760481226</v>
+        <v>7.129499260410689</v>
       </c>
       <c r="I31" t="n">
         <v>6</v>
@@ -1561,9 +1665,15 @@
       <c r="J31" t="n">
         <v>29</v>
       </c>
-      <c r="K31" t="s"/>
-      <c r="L31" t="s"/>
-      <c r="M31" t="s"/>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
